--- a/Financial Analysis/PYPL.xlsx
+++ b/Financial Analysis/PYPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A2906-668C-4CBE-9410-826BF6D5DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21912399-3E94-42FB-9A16-78F9B3BADFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7B33BECD-2B6A-465C-BF18-30C78DC6ADF8}"/>
   </bookViews>
@@ -727,7 +727,7 @@
   <dimension ref="C2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,17 +753,17 @@
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <v>60.96</v>
+        <v>62.89</v>
       </c>
       <c r="E3" s="4">
-        <v>45751</v>
+        <v>45776</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="4">
-        <v>45777</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
       </c>
       <c r="D5" s="1">
         <f>D3*D4</f>
-        <v>60301.632000000005</v>
+        <v>62210.788</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
@@ -792,11 +792,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <f>6561+4262+4583</f>
-        <v>15406</v>
+        <f>7449+3762+4613</f>
+        <v>15824</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
@@ -804,11 +804,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <f>9879</f>
-        <v>9879</v>
+        <f>11417</f>
+        <v>11417</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
       </c>
       <c r="D8" s="1">
         <f>D6-D7</f>
-        <v>5527</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
       </c>
       <c r="D9" s="1">
         <f>D5-D8</f>
-        <v>54774.632000000005</v>
+        <v>57803.788</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +840,10 @@
   <dimension ref="A2:EP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX30" sqref="AX30"/>
+      <selection pane="bottomRight" activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,20 +1049,19 @@
         <v>8366</v>
       </c>
       <c r="W3" s="7">
-        <f>S3*1.05</f>
-        <v>8083.9500000000007</v>
+        <v>7791</v>
       </c>
       <c r="X3" s="7">
-        <f t="shared" ref="X3:Y3" si="0">T3*1.05</f>
-        <v>8279.25</v>
+        <f>T3*1.02</f>
+        <v>8042.7</v>
       </c>
       <c r="Y3" s="7">
-        <f t="shared" si="0"/>
-        <v>8239.35</v>
+        <f>U3*1.03</f>
+        <v>8082.41</v>
       </c>
       <c r="Z3" s="7">
-        <f>V3*1.06</f>
-        <v>8867.9600000000009</v>
+        <f>V3*1.01</f>
+        <v>8449.66</v>
       </c>
       <c r="AC3" s="7">
         <v>15451</v>
@@ -1092,47 +1091,47 @@
       </c>
       <c r="AJ3" s="7">
         <f>SUM(W3:Z3)</f>
-        <v>33470.51</v>
+        <v>32365.77</v>
       </c>
       <c r="AK3" s="7">
-        <f>AJ3*1.04</f>
-        <v>34809.330400000006</v>
+        <f>AJ3*1.02</f>
+        <v>33013.085400000004</v>
       </c>
       <c r="AL3" s="7">
-        <f>AK3*1.03</f>
-        <v>35853.610312000004</v>
+        <f>AK3*1.02</f>
+        <v>33673.347108000002</v>
       </c>
       <c r="AM3" s="7">
         <f>AL3*1.02</f>
-        <v>36570.682518240006</v>
+        <v>34346.814050159999</v>
       </c>
       <c r="AN3" s="7">
-        <f t="shared" ref="AN3:AO3" si="1">AM3*1.02</f>
-        <v>37302.09616860481</v>
+        <f t="shared" ref="AN3" si="0">AM3*1.02</f>
+        <v>35033.750331163203</v>
       </c>
       <c r="AO3" s="7">
+        <f>AN3*1.01</f>
+        <v>35384.087834474834</v>
+      </c>
+      <c r="AP3" s="7">
+        <f t="shared" ref="AP3:AT3" si="1">AO3*1.01</f>
+        <v>35737.928712819587</v>
+      </c>
+      <c r="AQ3" s="7">
         <f t="shared" si="1"/>
-        <v>38048.138091976907</v>
-      </c>
-      <c r="AP3" s="7">
-        <f>AO3*1.01</f>
-        <v>38428.619472896673</v>
-      </c>
-      <c r="AQ3" s="7">
-        <f t="shared" ref="AQ3:AT3" si="2">AP3*1.01</f>
-        <v>38812.905667625637</v>
+        <v>36095.307999947785</v>
       </c>
       <c r="AR3" s="7">
-        <f t="shared" si="2"/>
-        <v>39201.034724301891</v>
+        <f t="shared" si="1"/>
+        <v>36456.26107994726</v>
       </c>
       <c r="AS3" s="7">
-        <f t="shared" si="2"/>
-        <v>39593.045071544911</v>
+        <f t="shared" si="1"/>
+        <v>36820.823690746736</v>
       </c>
       <c r="AT3" s="7">
-        <f t="shared" si="2"/>
-        <v>39988.975522260364</v>
+        <f t="shared" si="1"/>
+        <v>37189.031927654207</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
@@ -1199,7 +1198,9 @@
       <c r="V4" s="1">
         <v>3997</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>3704</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1305,7 +1306,9 @@
       <c r="V5" s="1">
         <v>434</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>371</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1411,7 +1414,9 @@
       <c r="V6" s="1">
         <v>451</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>398</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1458,123 +1463,123 @@
         <v>37</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:V7" si="3">SUM(C4:C6)</f>
+        <f t="shared" ref="C7:W7" si="2">SUM(C4:C6)</f>
         <v>2729</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>2706</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>2815</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>3203</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>3066</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>3214</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>3336</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>3834</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>3720</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>4028</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>3864</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>4253</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>4213</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>4431</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>4523</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>4819</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
+        <v>4692</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
+        <v>4713</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>4620</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="2"/>
+        <v>4882</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="2"/>
+        <v>4473</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" ref="X7:Z7" si="3">X3-X8</f>
+        <v>4584.3389999999999</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="3"/>
-        <v>2706</v>
-      </c>
-      <c r="E7" s="1">
+        <v>4606.9737000000005</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="3"/>
-        <v>2815</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>3203</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>3066</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>3214</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>3336</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>3834</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>3720</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>4028</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3864</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>4253</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>4213</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>4431</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>4523</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>4819</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>4692</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>4713</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>4620</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>4882</v>
-      </c>
-      <c r="W7" s="1">
-        <f>W3-W8</f>
-        <v>4850.3700000000008</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" ref="X7:Z7" si="4">X3-X8</f>
-        <v>4967.5499999999993</v>
-      </c>
-      <c r="Y7" s="1">
+        <v>4816.3062</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" ref="AC7:AH7" si="4">SUM(AC4:AC6)</f>
+        <v>8262</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="4"/>
-        <v>4861.2165000000005</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>9785</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="4"/>
-        <v>5143.4168000000009</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" ref="AC7:AH7" si="5">SUM(AC4:AC6)</f>
-        <v>8262</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="5"/>
-        <v>9785</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="5"/>
         <v>11453</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13450</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15865</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17986</v>
       </c>
       <c r="AI7" s="1">
@@ -1582,48 +1587,48 @@
         <v>18907</v>
       </c>
       <c r="AJ7" s="1">
-        <f>AJ3-AJ8</f>
-        <v>19412.895800000002</v>
+        <f>SUM(W7:Z7)</f>
+        <v>18480.618900000001</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" ref="AK7:AT7" si="6">AK3-AK8</f>
-        <v>19841.318328000001</v>
+        <f t="shared" ref="AK7:AT7" si="5">AK3-AK8</f>
+        <v>18157.196970000001</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="6"/>
-        <v>20078.02177472</v>
+        <f t="shared" si="5"/>
+        <v>18183.607438320003</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="6"/>
-        <v>20113.875385032003</v>
+        <f t="shared" si="5"/>
+        <v>18547.279587086399</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="6"/>
-        <v>20516.152892732644</v>
+        <f t="shared" si="5"/>
+        <v>18918.225178828128</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="6"/>
-        <v>20926.475950587297</v>
+        <f t="shared" si="5"/>
+        <v>19107.407430616411</v>
       </c>
       <c r="AP7" s="1">
-        <f t="shared" si="6"/>
-        <v>21135.74071009317</v>
+        <f t="shared" si="5"/>
+        <v>19298.481504922576</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="6"/>
-        <v>21347.098117194098</v>
+        <f t="shared" si="5"/>
+        <v>19491.466319971802</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="6"/>
-        <v>21560.569098366039</v>
+        <f t="shared" si="5"/>
+        <v>19686.380983171519</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="6"/>
-        <v>21776.174789349701</v>
+        <f t="shared" si="5"/>
+        <v>19883.244793003236</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="6"/>
-        <v>21993.9365372432</v>
+        <f t="shared" si="5"/>
+        <v>20082.077240933271</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1632,103 +1637,103 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" ref="C8:V8" si="7">C3-C7</f>
+        <f t="shared" ref="C8:W8" si="6">C3-C7</f>
         <v>1889</v>
       </c>
       <c r="D8" s="7">
+        <f t="shared" si="6"/>
+        <v>2555</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="6"/>
+        <v>2644</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="6"/>
+        <v>2913</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="6"/>
+        <v>2967</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="6"/>
+        <v>3024</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="6"/>
+        <v>2846</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="6"/>
+        <v>3084</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="6"/>
+        <v>2763</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>2778</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="6"/>
+        <v>2982</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="6"/>
+        <v>3130</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="6"/>
+        <v>2827</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="6"/>
+        <v>2856</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="6"/>
+        <v>2895</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="6"/>
+        <v>3207</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="6"/>
+        <v>3007</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="6"/>
+        <v>3172</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="6"/>
+        <v>3227</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="6"/>
+        <v>3484</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="6"/>
+        <v>3318</v>
+      </c>
+      <c r="X8" s="7">
+        <f>X3*0.43</f>
+        <v>3458.3609999999999</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" ref="Y8:Z8" si="7">Y3*0.43</f>
+        <v>3475.4362999999998</v>
+      </c>
+      <c r="Z8" s="7">
         <f t="shared" si="7"/>
-        <v>2555</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="7"/>
-        <v>2644</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="7"/>
-        <v>2913</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="7"/>
-        <v>2967</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="7"/>
-        <v>3024</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="7"/>
-        <v>2846</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="7"/>
-        <v>3084</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="7"/>
-        <v>2763</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="7"/>
-        <v>2778</v>
-      </c>
-      <c r="M8" s="7">
-        <f t="shared" si="7"/>
-        <v>2982</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" si="7"/>
-        <v>3130</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="7"/>
-        <v>2827</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="7"/>
-        <v>2856</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="7"/>
-        <v>2895</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="7"/>
-        <v>3207</v>
-      </c>
-      <c r="S8" s="7">
-        <f t="shared" si="7"/>
-        <v>3007</v>
-      </c>
-      <c r="T8" s="7">
-        <f t="shared" si="7"/>
-        <v>3172</v>
-      </c>
-      <c r="U8" s="7">
-        <f t="shared" si="7"/>
-        <v>3227</v>
-      </c>
-      <c r="V8" s="7">
-        <f t="shared" si="7"/>
-        <v>3484</v>
-      </c>
-      <c r="W8" s="7">
-        <f>W3*0.4</f>
-        <v>3233.5800000000004</v>
-      </c>
-      <c r="X8" s="7">
-        <f>X3*0.4</f>
-        <v>3311.7000000000003</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>Y3*0.41</f>
-        <v>3378.1334999999999</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>Z3*0.42</f>
-        <v>3724.5432000000001</v>
+        <v>3633.3537999999999</v>
       </c>
       <c r="AC8" s="7">
-        <f t="shared" ref="AC8:AI8" si="8">AC3-AC7</f>
+        <f t="shared" ref="AC8:AJ8" si="8">AC3-AC7</f>
         <v>7189</v>
       </c>
       <c r="AD8" s="7">
@@ -1756,48 +1761,48 @@
         <v>12890</v>
       </c>
       <c r="AJ8" s="7">
-        <f>AJ3*0.42</f>
-        <v>14057.6142</v>
+        <f t="shared" si="8"/>
+        <v>13885.151099999999</v>
       </c>
       <c r="AK8" s="7">
-        <f>AK3*0.43</f>
-        <v>14968.012072000003</v>
+        <f>AK3*0.45</f>
+        <v>14855.888430000003</v>
       </c>
       <c r="AL8" s="7">
-        <f>AL3*0.44</f>
-        <v>15775.588537280002</v>
+        <f>AL3*0.46</f>
+        <v>15489.739669680001</v>
       </c>
       <c r="AM8" s="7">
-        <f>AM3*0.45</f>
-        <v>16456.807133208004</v>
+        <f t="shared" ref="AM8:AT8" si="9">AM3*0.46</f>
+        <v>15799.5344630736</v>
       </c>
       <c r="AN8" s="7">
-        <f t="shared" ref="AN8:AT8" si="9">AN3*0.45</f>
-        <v>16785.943275872167</v>
+        <f t="shared" si="9"/>
+        <v>16115.525152335074</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="9"/>
-        <v>17121.66214138961</v>
+        <v>16276.680403858425</v>
       </c>
       <c r="AP8" s="7">
         <f t="shared" si="9"/>
-        <v>17292.878762803502</v>
+        <v>16439.44720789701</v>
       </c>
       <c r="AQ8" s="7">
         <f t="shared" si="9"/>
-        <v>17465.807550431538</v>
+        <v>16603.841679975983</v>
       </c>
       <c r="AR8" s="7">
         <f t="shared" si="9"/>
-        <v>17640.465625935853</v>
+        <v>16769.880096775742</v>
       </c>
       <c r="AS8" s="7">
         <f t="shared" si="9"/>
-        <v>17816.87028219521</v>
+        <v>16937.5788977435</v>
       </c>
       <c r="AT8" s="7">
         <f t="shared" si="9"/>
-        <v>17995.038985017163</v>
+        <v>17106.954686720936</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -1865,20 +1870,19 @@
         <v>626</v>
       </c>
       <c r="W9" s="1">
-        <f>W3*0.05</f>
-        <v>404.19750000000005</v>
+        <v>488</v>
       </c>
       <c r="X9" s="1">
         <f>X3*0.06</f>
-        <v>496.755</v>
+        <v>482.56199999999995</v>
       </c>
       <c r="Y9" s="1">
         <f>Y3*0.06</f>
-        <v>494.36099999999999</v>
+        <v>484.94459999999998</v>
       </c>
       <c r="Z9" s="1">
         <f>Z3*0.07</f>
-        <v>620.75720000000013</v>
+        <v>591.47620000000006</v>
       </c>
       <c r="AC9" s="1">
         <v>1314</v>
@@ -1907,48 +1911,48 @@
         <v>2001</v>
       </c>
       <c r="AJ9" s="1">
-        <f>AJ3*0.06</f>
-        <v>2008.2306000000001</v>
+        <f t="shared" ref="AJ9:AJ12" si="10">SUM(W9:Z9)</f>
+        <v>2046.9828</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" ref="AK9:AT9" si="10">AK3*0.06</f>
-        <v>2088.5598240000004</v>
+        <f t="shared" ref="AK9:AT9" si="11">AK3*0.06</f>
+        <v>1980.7851240000002</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="10"/>
-        <v>2151.21661872</v>
+        <f t="shared" si="11"/>
+        <v>2020.40082648</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="10"/>
-        <v>2194.2409510944003</v>
+        <f t="shared" si="11"/>
+        <v>2060.8088430096</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="10"/>
-        <v>2238.1257701162885</v>
+        <f t="shared" si="11"/>
+        <v>2102.0250198697922</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="10"/>
-        <v>2282.8882855186143</v>
+        <f t="shared" si="11"/>
+        <v>2123.04527006849</v>
       </c>
       <c r="AP9" s="1">
-        <f t="shared" si="10"/>
-        <v>2305.7171683738002</v>
+        <f t="shared" si="11"/>
+        <v>2144.275722769175</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="10"/>
-        <v>2328.7743400575382</v>
+        <f t="shared" si="11"/>
+        <v>2165.7184799968672</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="10"/>
-        <v>2352.0620834581132</v>
+        <f t="shared" si="11"/>
+        <v>2187.3756647968357</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="10"/>
-        <v>2375.5827042926944</v>
+        <f t="shared" si="11"/>
+        <v>2209.2494214448043</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="10"/>
-        <v>2399.3385313356216</v>
+        <f t="shared" si="11"/>
+        <v>2231.3419156592522</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.3">
@@ -2016,19 +2020,18 @@
         <v>773</v>
       </c>
       <c r="W10" s="1">
-        <f>S10*1.01</f>
-        <v>749.42</v>
+        <v>731</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" ref="X10:Z10" si="11">T10*1.01</f>
+        <f t="shared" ref="X10:Z10" si="12">T10*1.01</f>
         <v>725.18</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>753.46</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>780.73</v>
       </c>
       <c r="AC10" s="1">
@@ -2058,48 +2061,48 @@
         <v>2979</v>
       </c>
       <c r="AJ10" s="1">
-        <f>AI10*1.03</f>
-        <v>3068.37</v>
+        <f t="shared" si="10"/>
+        <v>2990.37</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" ref="AK10" si="12">AJ10*1.02</f>
-        <v>3129.7374</v>
+        <f t="shared" ref="AK10" si="13">AJ10*1.02</f>
+        <v>3050.1774</v>
       </c>
       <c r="AL10" s="1">
         <f>AK10*1.01</f>
-        <v>3161.0347740000002</v>
+        <v>3080.6791739999999</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" ref="AM10:AT10" si="13">AL10*1.01</f>
-        <v>3192.6451217400004</v>
+        <f t="shared" ref="AM10:AT10" si="14">AL10*1.01</f>
+        <v>3111.4859657399998</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="13"/>
-        <v>3224.5715729574003</v>
+        <f t="shared" si="14"/>
+        <v>3142.6008253973996</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="13"/>
-        <v>3256.8172886869743</v>
+        <f t="shared" si="14"/>
+        <v>3174.0268336513736</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="13"/>
-        <v>3289.3854615738442</v>
+        <f t="shared" si="14"/>
+        <v>3205.7671019878876</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="13"/>
-        <v>3322.2793161895825</v>
+        <f t="shared" si="14"/>
+        <v>3237.8247730077665</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="13"/>
-        <v>3355.5021093514783</v>
+        <f t="shared" si="14"/>
+        <v>3270.2030207378443</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="13"/>
-        <v>3389.0571304449932</v>
+        <f t="shared" si="14"/>
+        <v>3302.9050509452227</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="13"/>
-        <v>3422.9477017494432</v>
+        <f t="shared" si="14"/>
+        <v>3335.9341014546749</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -2167,19 +2170,18 @@
         <v>594</v>
       </c>
       <c r="W11" s="1">
-        <f>S11*1.03</f>
-        <v>477.92</v>
+        <v>503</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" ref="X11:Z11" si="14">T11*1.03</f>
-        <v>587.1</v>
+        <f>T11*0.95</f>
+        <v>541.5</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="14"/>
-        <v>534.57000000000005</v>
+        <f t="shared" ref="Y11" si="15">U11*1.05</f>
+        <v>544.95000000000005</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="14"/>
+        <f>V11*1.03</f>
         <v>611.82000000000005</v>
       </c>
       <c r="AC11" s="1">
@@ -2209,48 +2211,48 @@
         <v>2147</v>
       </c>
       <c r="AJ11" s="1">
-        <f>AI11*1.03</f>
-        <v>2211.41</v>
+        <f t="shared" si="10"/>
+        <v>2201.27</v>
       </c>
       <c r="AK11" s="1">
         <f>AJ11*1.02</f>
-        <v>2255.6381999999999</v>
+        <v>2245.2954</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" ref="AL11:AT11" si="15">AK11*1.01</f>
-        <v>2278.1945820000001</v>
+        <f t="shared" ref="AL11:AT11" si="16">AK11*1.01</f>
+        <v>2267.7483539999998</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="15"/>
-        <v>2300.9765278200002</v>
+        <f t="shared" si="16"/>
+        <v>2290.42583754</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="15"/>
-        <v>2323.9862930982003</v>
+        <f t="shared" si="16"/>
+        <v>2313.3300959153999</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="15"/>
-        <v>2347.2261560291822</v>
+        <f t="shared" si="16"/>
+        <v>2336.4633968745538</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="15"/>
-        <v>2370.698417589474</v>
+        <f t="shared" si="16"/>
+        <v>2359.8280308432995</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="15"/>
-        <v>2394.4054017653689</v>
+        <f t="shared" si="16"/>
+        <v>2383.4263111517325</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="15"/>
-        <v>2418.3494557830227</v>
+        <f t="shared" si="16"/>
+        <v>2407.26057426325</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="15"/>
-        <v>2442.5329503408529</v>
+        <f t="shared" si="16"/>
+        <v>2431.3331800058827</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="15"/>
-        <v>2466.9582798442616</v>
+        <f t="shared" si="16"/>
+        <v>2455.6465118059414</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
@@ -2318,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="W12" s="1">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="X12" s="1">
         <v>50</v>
@@ -2356,7 +2358,8 @@
         <v>438</v>
       </c>
       <c r="AJ12" s="1">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>216</v>
       </c>
       <c r="AK12" s="1">
         <v>100</v>
@@ -2395,172 +2398,172 @@
         <v>31</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:S13" si="16">C8-SUM(C9:C12)</f>
+        <f t="shared" ref="C13:S13" si="17">C8-SUM(C9:C12)</f>
         <v>398</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>951</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>977</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>963</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1042</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1127</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1043</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1050</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>711</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>764</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1118</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1244</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>999</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1133</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1168</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1728</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1168</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" ref="T13:Z13" si="17">T8-SUM(T9:T12)</f>
+        <f t="shared" ref="T13:Z13" si="18">T8-SUM(T9:T12)</f>
         <v>1325</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1391</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1441</v>
       </c>
       <c r="W13" s="7">
-        <f t="shared" si="17"/>
-        <v>1552.0425000000002</v>
+        <f t="shared" si="18"/>
+        <v>1530</v>
       </c>
       <c r="X13" s="7">
-        <f t="shared" si="17"/>
-        <v>1452.6650000000004</v>
+        <f t="shared" si="18"/>
+        <v>1659.1189999999999</v>
       </c>
       <c r="Y13" s="7">
-        <f t="shared" si="17"/>
-        <v>1545.7424999999998</v>
+        <f t="shared" si="18"/>
+        <v>1642.0816999999997</v>
       </c>
       <c r="Z13" s="7">
-        <f t="shared" si="17"/>
-        <v>1661.2359999999999</v>
+        <f t="shared" si="18"/>
+        <v>1599.3275999999996</v>
       </c>
       <c r="AC13" s="7">
-        <f t="shared" ref="AC13:AJ13" si="18">AC8-SUM(AC9:AC12)</f>
+        <f t="shared" ref="AC13:AJ13" si="19">AC8-SUM(AC9:AC12)</f>
         <v>2194</v>
       </c>
       <c r="AD13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2719</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3289</v>
       </c>
       <c r="AF13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4262</v>
       </c>
       <c r="AG13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3837</v>
       </c>
       <c r="AH13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5028</v>
       </c>
       <c r="AI13" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5325</v>
       </c>
       <c r="AJ13" s="7">
-        <f t="shared" si="18"/>
-        <v>6669.6036000000004</v>
+        <f t="shared" si="19"/>
+        <v>6430.5282999999999</v>
       </c>
       <c r="AK13" s="7">
-        <f t="shared" ref="AK13:AT13" si="19">AK8-SUM(AK9:AK12)</f>
-        <v>7394.0766480000038</v>
+        <f t="shared" ref="AK13:AT13" si="20">AK8-SUM(AK9:AK12)</f>
+        <v>7479.6305060000022</v>
       </c>
       <c r="AL13" s="7">
-        <f t="shared" si="19"/>
-        <v>8085.1425625600023</v>
+        <f t="shared" si="20"/>
+        <v>8020.9113152000009</v>
       </c>
       <c r="AM13" s="7">
-        <f t="shared" si="19"/>
-        <v>8668.9445325536035</v>
+        <f t="shared" si="20"/>
+        <v>8236.8138167840007</v>
       </c>
       <c r="AN13" s="7">
-        <f t="shared" si="19"/>
-        <v>8899.2596397002781</v>
+        <f t="shared" si="20"/>
+        <v>8457.5692111524822</v>
       </c>
       <c r="AO13" s="7">
-        <f t="shared" si="19"/>
-        <v>9134.7304111548383</v>
+        <f t="shared" si="20"/>
+        <v>8543.1449032640085</v>
       </c>
       <c r="AP13" s="7">
-        <f t="shared" si="19"/>
-        <v>9227.0777152663832</v>
+        <f t="shared" si="20"/>
+        <v>8629.5763522966481</v>
       </c>
       <c r="AQ13" s="7">
-        <f t="shared" si="19"/>
-        <v>9320.3484924190489</v>
+        <f t="shared" si="20"/>
+        <v>8716.8721158196167</v>
       </c>
       <c r="AR13" s="7">
-        <f t="shared" si="19"/>
-        <v>9414.5519773432388</v>
+        <f t="shared" si="20"/>
+        <v>8805.0408369778124</v>
       </c>
       <c r="AS13" s="7">
-        <f t="shared" si="19"/>
-        <v>9509.697497116671</v>
+        <f t="shared" si="20"/>
+        <v>8894.0912453475903</v>
       </c>
       <c r="AT13" s="7">
-        <f t="shared" si="19"/>
-        <v>9605.7944720878368</v>
+        <f t="shared" si="20"/>
+        <v>8984.0321578010662</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.3">
@@ -2628,7 +2631,7 @@
         <v>31</v>
       </c>
       <c r="W14" s="1">
-        <v>-20</v>
+        <v>-73</v>
       </c>
       <c r="X14" s="1">
         <v>-20</v>
@@ -2666,7 +2669,8 @@
         <v>-4</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <f>SUM(W14:Z14)</f>
+        <v>-133</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2705,172 +2709,172 @@
         <v>33</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" ref="C15:S15" si="20">C13-C14</f>
+        <f t="shared" ref="C15:S15" si="21">C13-C14</f>
         <v>263</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1799</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1144</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1859</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>872</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1356</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1165</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>706</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>629</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1578</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1110</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1074</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1303</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1241</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1793</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1209</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" ref="T15:Z15" si="21">T13-T14</f>
+        <f t="shared" ref="T15:Z15" si="22">T13-T14</f>
         <v>1399</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1311</v>
       </c>
       <c r="V15" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1410</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" si="21"/>
-        <v>1572.0425000000002</v>
+        <f t="shared" si="22"/>
+        <v>1603</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="21"/>
-        <v>1472.6650000000004</v>
+        <f t="shared" si="22"/>
+        <v>1679.1189999999999</v>
       </c>
       <c r="Y15" s="7">
-        <f t="shared" si="21"/>
-        <v>1565.7424999999998</v>
+        <f t="shared" si="22"/>
+        <v>1662.0816999999997</v>
       </c>
       <c r="Z15" s="7">
-        <f t="shared" si="21"/>
-        <v>1681.2359999999999</v>
+        <f t="shared" si="22"/>
+        <v>1619.3275999999996</v>
       </c>
       <c r="AC15" s="7">
-        <f t="shared" ref="AC15:AJ15" si="22">AC13-AC14</f>
+        <f t="shared" ref="AC15:AJ15" si="23">AC13-AC14</f>
         <v>2376</v>
       </c>
       <c r="AD15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2998</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5065</v>
       </c>
       <c r="AF15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4099</v>
       </c>
       <c r="AG15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3366</v>
       </c>
       <c r="AH15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5411</v>
       </c>
       <c r="AI15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5329</v>
       </c>
       <c r="AJ15" s="7">
-        <f t="shared" si="22"/>
-        <v>6669.6036000000004</v>
+        <f t="shared" si="23"/>
+        <v>6563.5282999999999</v>
       </c>
       <c r="AK15" s="7">
-        <f t="shared" ref="AK15:AT15" si="23">AK13-AK14</f>
-        <v>7394.0766480000038</v>
+        <f t="shared" ref="AK15:AT15" si="24">AK13-AK14</f>
+        <v>7479.6305060000022</v>
       </c>
       <c r="AL15" s="7">
-        <f t="shared" si="23"/>
-        <v>8085.1425625600023</v>
+        <f t="shared" si="24"/>
+        <v>8020.9113152000009</v>
       </c>
       <c r="AM15" s="7">
-        <f t="shared" si="23"/>
-        <v>8668.9445325536035</v>
+        <f t="shared" si="24"/>
+        <v>8236.8138167840007</v>
       </c>
       <c r="AN15" s="7">
-        <f t="shared" si="23"/>
-        <v>8899.2596397002781</v>
+        <f t="shared" si="24"/>
+        <v>8457.5692111524822</v>
       </c>
       <c r="AO15" s="7">
-        <f t="shared" si="23"/>
-        <v>9134.7304111548383</v>
+        <f t="shared" si="24"/>
+        <v>8543.1449032640085</v>
       </c>
       <c r="AP15" s="7">
-        <f t="shared" si="23"/>
-        <v>9227.0777152663832</v>
+        <f t="shared" si="24"/>
+        <v>8629.5763522966481</v>
       </c>
       <c r="AQ15" s="7">
-        <f t="shared" si="23"/>
-        <v>9320.3484924190489</v>
+        <f t="shared" si="24"/>
+        <v>8716.8721158196167</v>
       </c>
       <c r="AR15" s="7">
-        <f t="shared" si="23"/>
-        <v>9414.5519773432388</v>
+        <f t="shared" si="24"/>
+        <v>8805.0408369778124</v>
       </c>
       <c r="AS15" s="7">
-        <f t="shared" si="23"/>
-        <v>9509.697497116671</v>
+        <f t="shared" si="24"/>
+        <v>8894.0912453475903</v>
       </c>
       <c r="AT15" s="7">
-        <f t="shared" si="23"/>
-        <v>9605.7944720878368</v>
+        <f t="shared" si="24"/>
+        <v>8984.0321578010662</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.3">
@@ -2938,20 +2942,19 @@
         <v>289</v>
       </c>
       <c r="W16" s="1">
-        <f>W15*0.22</f>
-        <v>345.84935000000007</v>
+        <v>316</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ref="X16:Z16" si="24">X15*0.22</f>
-        <v>323.98630000000009</v>
+        <f t="shared" ref="X16:Z16" si="25">X15*0.22</f>
+        <v>369.40618000000001</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="24"/>
-        <v>344.46334999999999</v>
+        <f t="shared" si="25"/>
+        <v>365.65797399999997</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="24"/>
-        <v>369.87191999999999</v>
+        <f t="shared" si="25"/>
+        <v>356.25207199999994</v>
       </c>
       <c r="AC16" s="1">
         <v>319</v>
@@ -2980,48 +2983,48 @@
         <v>1182</v>
       </c>
       <c r="AJ16" s="1">
-        <f>AJ15*0.22</f>
-        <v>1467.3127920000002</v>
+        <f>SUM(W16:Z16)</f>
+        <v>1407.3162259999999</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" ref="AK16:AT16" si="25">AK15*0.22</f>
-        <v>1626.6968625600009</v>
+        <f t="shared" ref="AK16:AT16" si="26">AK15*0.22</f>
+        <v>1645.5187113200004</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="25"/>
-        <v>1778.7313637632005</v>
+        <f t="shared" si="26"/>
+        <v>1764.6004893440002</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="25"/>
-        <v>1907.1677971617928</v>
+        <f t="shared" si="26"/>
+        <v>1812.0990396924801</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="25"/>
-        <v>1957.8371207340613</v>
+        <f t="shared" si="26"/>
+        <v>1860.6652264535462</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="25"/>
-        <v>2009.6406904540645</v>
+        <f t="shared" si="26"/>
+        <v>1879.4918787180818</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="25"/>
-        <v>2029.9570973586044</v>
+        <f t="shared" si="26"/>
+        <v>1898.5067975052625</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="25"/>
-        <v>2050.4766683321909</v>
+        <f t="shared" si="26"/>
+        <v>1917.7118654803157</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="25"/>
-        <v>2071.2014350155127</v>
+        <f t="shared" si="26"/>
+        <v>1937.1089841351188</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="25"/>
-        <v>2092.1334493656677</v>
+        <f t="shared" si="26"/>
+        <v>1956.7000739764699</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="25"/>
-        <v>2113.2747838593241</v>
+        <f t="shared" si="26"/>
+        <v>1976.4870747162345</v>
       </c>
     </row>
     <row r="17" spans="1:146" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3030,572 +3033,572 @@
         <v>35</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" ref="C17:S17" si="26">C15-C16</f>
+        <f t="shared" ref="C17:S17" si="27">C15-C16</f>
         <v>84</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1530</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1021</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1567</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1097</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1184</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1087</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>801</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>509</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-341</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1330</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>921</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>795</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1029</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1020</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1402</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>888</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" ref="T17:V17" si="27">T15-T16</f>
+        <f t="shared" ref="T17:V17" si="28">T15-T16</f>
         <v>1128</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1010</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1121</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" ref="W17:Z17" si="28">W15-W16</f>
-        <v>1226.1931500000001</v>
+        <f t="shared" ref="W17:Z17" si="29">W15-W16</f>
+        <v>1287</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="28"/>
-        <v>1148.6787000000004</v>
+        <f t="shared" si="29"/>
+        <v>1309.71282</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="28"/>
-        <v>1221.2791499999998</v>
+        <f t="shared" si="29"/>
+        <v>1296.4237259999998</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="28"/>
-        <v>1311.3640799999998</v>
+        <f t="shared" si="29"/>
+        <v>1263.0755279999996</v>
       </c>
       <c r="AC17" s="7">
-        <f t="shared" ref="AC17:AJ17" si="29">AC15-AC16</f>
+        <f t="shared" ref="AC17:AJ17" si="30">AC15-AC16</f>
         <v>2057</v>
       </c>
       <c r="AD17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2459</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4202</v>
       </c>
       <c r="AF17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4169</v>
       </c>
       <c r="AG17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2419</v>
       </c>
       <c r="AH17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4246</v>
       </c>
       <c r="AI17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4147</v>
       </c>
       <c r="AJ17" s="7">
-        <f t="shared" si="29"/>
-        <v>5202.2908079999997</v>
+        <f t="shared" si="30"/>
+        <v>5156.212074</v>
       </c>
       <c r="AK17" s="7">
-        <f t="shared" ref="AK17:AT17" si="30">AK15-AK16</f>
-        <v>5767.3797854400027</v>
+        <f t="shared" ref="AK17:AT17" si="31">AK15-AK16</f>
+        <v>5834.1117946800023</v>
       </c>
       <c r="AL17" s="7">
-        <f t="shared" si="30"/>
-        <v>6306.4111987968017</v>
+        <f t="shared" si="31"/>
+        <v>6256.3108258560005</v>
       </c>
       <c r="AM17" s="7">
-        <f t="shared" si="30"/>
-        <v>6761.7767353918107</v>
+        <f t="shared" si="31"/>
+        <v>6424.7147770915208</v>
       </c>
       <c r="AN17" s="7">
-        <f t="shared" si="30"/>
-        <v>6941.4225189662166</v>
+        <f t="shared" si="31"/>
+        <v>6596.9039846989363</v>
       </c>
       <c r="AO17" s="7">
-        <f t="shared" si="30"/>
-        <v>7125.0897207007738</v>
+        <f t="shared" si="31"/>
+        <v>6663.6530245459271</v>
       </c>
       <c r="AP17" s="7">
-        <f t="shared" si="30"/>
-        <v>7197.120617907779</v>
+        <f t="shared" si="31"/>
+        <v>6731.0695547913856</v>
       </c>
       <c r="AQ17" s="7">
-        <f t="shared" si="30"/>
-        <v>7269.8718240868584</v>
+        <f t="shared" si="31"/>
+        <v>6799.1602503393005</v>
       </c>
       <c r="AR17" s="7">
-        <f t="shared" si="30"/>
-        <v>7343.3505423277256</v>
+        <f t="shared" si="31"/>
+        <v>6867.9318528426938</v>
       </c>
       <c r="AS17" s="7">
-        <f t="shared" si="30"/>
-        <v>7417.5640477510033</v>
+        <f t="shared" si="31"/>
+        <v>6937.3911713711204</v>
       </c>
       <c r="AT17" s="7">
-        <f t="shared" si="30"/>
-        <v>7492.5196882285127</v>
+        <f t="shared" si="31"/>
+        <v>7007.5450830848313</v>
       </c>
       <c r="AU17" s="6">
         <f>AT17*(1+$AX$22)</f>
-        <v>7417.5944913462272</v>
+        <v>6937.469632253983</v>
       </c>
       <c r="AV17" s="6">
-        <f t="shared" ref="AV17:DG17" si="31">AU17*(1+$AX$22)</f>
-        <v>7343.4185464327647</v>
+        <f t="shared" ref="AV17:DG17" si="32">AU17*(1+$AX$22)</f>
+        <v>6868.0949359314427</v>
       </c>
       <c r="AW17" s="6">
-        <f t="shared" si="31"/>
-        <v>7269.9843609684367</v>
+        <f t="shared" si="32"/>
+        <v>6799.4139865721281</v>
       </c>
       <c r="AX17" s="6">
-        <f t="shared" si="31"/>
-        <v>7197.2845173587521</v>
+        <f t="shared" si="32"/>
+        <v>6731.419846706407</v>
       </c>
       <c r="AY17" s="6">
-        <f t="shared" si="31"/>
-        <v>7125.3116721851648</v>
+        <f t="shared" si="32"/>
+        <v>6664.1056482393433</v>
       </c>
       <c r="AZ17" s="6">
-        <f t="shared" si="31"/>
-        <v>7054.0585554633135</v>
+        <f t="shared" si="32"/>
+        <v>6597.4645917569496</v>
       </c>
       <c r="BA17" s="6">
-        <f t="shared" si="31"/>
-        <v>6983.5179699086802</v>
+        <f t="shared" si="32"/>
+        <v>6531.4899458393802</v>
       </c>
       <c r="BB17" s="6">
-        <f t="shared" si="31"/>
-        <v>6913.6827902095938</v>
+        <f t="shared" si="32"/>
+        <v>6466.1750463809867</v>
       </c>
       <c r="BC17" s="6">
-        <f t="shared" si="31"/>
-        <v>6844.5459623074976</v>
+        <f t="shared" si="32"/>
+        <v>6401.5132959171769</v>
       </c>
       <c r="BD17" s="6">
-        <f t="shared" si="31"/>
-        <v>6776.1005026844223</v>
+        <f t="shared" si="32"/>
+        <v>6337.4981629580052</v>
       </c>
       <c r="BE17" s="6">
-        <f t="shared" si="31"/>
-        <v>6708.3394976575782</v>
+        <f t="shared" si="32"/>
+        <v>6274.1231813284248</v>
       </c>
       <c r="BF17" s="6">
-        <f t="shared" si="31"/>
-        <v>6641.2561026810026</v>
+        <f t="shared" si="32"/>
+        <v>6211.3819495151401</v>
       </c>
       <c r="BG17" s="6">
-        <f t="shared" si="31"/>
-        <v>6574.8435416541924</v>
+        <f t="shared" si="32"/>
+        <v>6149.2681300199883</v>
       </c>
       <c r="BH17" s="6">
-        <f t="shared" si="31"/>
-        <v>6509.0951062376507</v>
+        <f t="shared" si="32"/>
+        <v>6087.7754487197881</v>
       </c>
       <c r="BI17" s="6">
-        <f t="shared" si="31"/>
-        <v>6444.0041551752738</v>
+        <f t="shared" si="32"/>
+        <v>6026.8976942325899</v>
       </c>
       <c r="BJ17" s="6">
-        <f t="shared" si="31"/>
-        <v>6379.5641136235208</v>
+        <f t="shared" si="32"/>
+        <v>5966.6287172902639</v>
       </c>
       <c r="BK17" s="6">
-        <f t="shared" si="31"/>
-        <v>6315.7684724872852</v>
+        <f t="shared" si="32"/>
+        <v>5906.9624301173608</v>
       </c>
       <c r="BL17" s="6">
-        <f t="shared" si="31"/>
-        <v>6252.6107877624127</v>
+        <f t="shared" si="32"/>
+        <v>5847.8928058161873</v>
       </c>
       <c r="BM17" s="6">
-        <f t="shared" si="31"/>
-        <v>6190.0846798847888</v>
+        <f t="shared" si="32"/>
+        <v>5789.4138777580256</v>
       </c>
       <c r="BN17" s="6">
-        <f t="shared" si="31"/>
-        <v>6128.1838330859409</v>
+        <f t="shared" si="32"/>
+        <v>5731.5197389804453</v>
       </c>
       <c r="BO17" s="6">
-        <f t="shared" si="31"/>
-        <v>6066.9019947550814</v>
+        <f t="shared" si="32"/>
+        <v>5674.2045415906405</v>
       </c>
       <c r="BP17" s="6">
-        <f t="shared" si="31"/>
-        <v>6006.2329748075308</v>
+        <f t="shared" si="32"/>
+        <v>5617.462496174734</v>
       </c>
       <c r="BQ17" s="6">
-        <f t="shared" si="31"/>
-        <v>5946.1706450594556</v>
+        <f t="shared" si="32"/>
+        <v>5561.2878712129868</v>
       </c>
       <c r="BR17" s="6">
-        <f t="shared" si="31"/>
-        <v>5886.708938608861</v>
+        <f t="shared" si="32"/>
+        <v>5505.6749925008571</v>
       </c>
       <c r="BS17" s="6">
-        <f t="shared" si="31"/>
-        <v>5827.841849222772</v>
+        <f t="shared" si="32"/>
+        <v>5450.6182425758489</v>
       </c>
       <c r="BT17" s="6">
-        <f t="shared" si="31"/>
-        <v>5769.5634307305445</v>
+        <f t="shared" si="32"/>
+        <v>5396.1120601500907</v>
       </c>
       <c r="BU17" s="6">
-        <f t="shared" si="31"/>
-        <v>5711.8677964232393</v>
+        <f t="shared" si="32"/>
+        <v>5342.15093954859</v>
       </c>
       <c r="BV17" s="6">
-        <f t="shared" si="31"/>
-        <v>5654.7491184590071</v>
+        <f t="shared" si="32"/>
+        <v>5288.7294301531037</v>
       </c>
       <c r="BW17" s="6">
-        <f t="shared" si="31"/>
-        <v>5598.2016272744168</v>
+        <f t="shared" si="32"/>
+        <v>5235.8421358515725</v>
       </c>
       <c r="BX17" s="6">
-        <f t="shared" si="31"/>
-        <v>5542.2196110016721</v>
+        <f t="shared" si="32"/>
+        <v>5183.4837144930571</v>
       </c>
       <c r="BY17" s="6">
-        <f t="shared" si="31"/>
-        <v>5486.7974148916555</v>
+        <f t="shared" si="32"/>
+        <v>5131.648877348126</v>
       </c>
       <c r="BZ17" s="6">
-        <f t="shared" si="31"/>
-        <v>5431.9294407427387</v>
+        <f t="shared" si="32"/>
+        <v>5080.3323885746449</v>
       </c>
       <c r="CA17" s="6">
-        <f t="shared" si="31"/>
-        <v>5377.6101463353116</v>
+        <f t="shared" si="32"/>
+        <v>5029.5290646888989</v>
       </c>
       <c r="CB17" s="6">
-        <f t="shared" si="31"/>
-        <v>5323.8340448719582</v>
+        <f t="shared" si="32"/>
+        <v>4979.2337740420098</v>
       </c>
       <c r="CC17" s="6">
-        <f t="shared" si="31"/>
-        <v>5270.5957044232382</v>
+        <f t="shared" si="32"/>
+        <v>4929.4414363015894</v>
       </c>
       <c r="CD17" s="6">
-        <f t="shared" si="31"/>
-        <v>5217.8897473790057</v>
+        <f t="shared" si="32"/>
+        <v>4880.1470219385737</v>
       </c>
       <c r="CE17" s="6">
-        <f t="shared" si="31"/>
-        <v>5165.7108499052156</v>
+        <f t="shared" si="32"/>
+        <v>4831.3455517191878</v>
       </c>
       <c r="CF17" s="6">
-        <f t="shared" si="31"/>
-        <v>5114.0537414061637</v>
+        <f t="shared" si="32"/>
+        <v>4783.032096201996</v>
       </c>
       <c r="CG17" s="6">
-        <f t="shared" si="31"/>
-        <v>5062.9132039921024</v>
+        <f t="shared" si="32"/>
+        <v>4735.2017752399761</v>
       </c>
       <c r="CH17" s="6">
-        <f t="shared" si="31"/>
-        <v>5012.284071952181</v>
+        <f t="shared" si="32"/>
+        <v>4687.8497574875764</v>
       </c>
       <c r="CI17" s="6">
-        <f t="shared" si="31"/>
-        <v>4962.1612312326588</v>
+        <f t="shared" si="32"/>
+        <v>4640.9712599127006</v>
       </c>
       <c r="CJ17" s="6">
-        <f t="shared" si="31"/>
-        <v>4912.539618920332</v>
+        <f t="shared" si="32"/>
+        <v>4594.5615473135731</v>
       </c>
       <c r="CK17" s="6">
-        <f t="shared" si="31"/>
-        <v>4863.4142227311286</v>
+        <f t="shared" si="32"/>
+        <v>4548.615931840437</v>
       </c>
       <c r="CL17" s="6">
-        <f t="shared" si="31"/>
-        <v>4814.7800805038169</v>
+        <f t="shared" si="32"/>
+        <v>4503.1297725220329</v>
       </c>
       <c r="CM17" s="6">
-        <f t="shared" si="31"/>
-        <v>4766.6322796987788</v>
+        <f t="shared" si="32"/>
+        <v>4458.0984747968123</v>
       </c>
       <c r="CN17" s="6">
-        <f t="shared" si="31"/>
-        <v>4718.9659569017913</v>
+        <f t="shared" si="32"/>
+        <v>4413.5174900488437</v>
       </c>
       <c r="CO17" s="6">
-        <f t="shared" si="31"/>
-        <v>4671.7762973327735</v>
+        <f t="shared" si="32"/>
+        <v>4369.3823151483548</v>
       </c>
       <c r="CP17" s="6">
-        <f t="shared" si="31"/>
-        <v>4625.0585343594457</v>
+        <f t="shared" si="32"/>
+        <v>4325.6884919968716</v>
       </c>
       <c r="CQ17" s="6">
-        <f t="shared" si="31"/>
-        <v>4578.8079490158516</v>
+        <f t="shared" si="32"/>
+        <v>4282.4316070769028</v>
       </c>
       <c r="CR17" s="6">
-        <f t="shared" si="31"/>
-        <v>4533.0198695256931</v>
+        <f t="shared" si="32"/>
+        <v>4239.6072910061339</v>
       </c>
       <c r="CS17" s="6">
-        <f t="shared" si="31"/>
-        <v>4487.6896708304357</v>
+        <f t="shared" si="32"/>
+        <v>4197.2112180960721</v>
       </c>
       <c r="CT17" s="6">
-        <f t="shared" si="31"/>
-        <v>4442.8127741221315</v>
+        <f t="shared" si="32"/>
+        <v>4155.2391059151114</v>
       </c>
       <c r="CU17" s="6">
-        <f t="shared" si="31"/>
-        <v>4398.3846463809105</v>
+        <f t="shared" si="32"/>
+        <v>4113.6867148559604</v>
       </c>
       <c r="CV17" s="6">
-        <f t="shared" si="31"/>
-        <v>4354.4007999171017</v>
+        <f t="shared" si="32"/>
+        <v>4072.5498477074007</v>
       </c>
       <c r="CW17" s="6">
-        <f t="shared" si="31"/>
-        <v>4310.8567919179304</v>
+        <f t="shared" si="32"/>
+        <v>4031.8243492303268</v>
       </c>
       <c r="CX17" s="6">
-        <f t="shared" si="31"/>
-        <v>4267.7482239987512</v>
+        <f t="shared" si="32"/>
+        <v>3991.5061057380235</v>
       </c>
       <c r="CY17" s="6">
-        <f t="shared" si="31"/>
-        <v>4225.0707417587637</v>
+        <f t="shared" si="32"/>
+        <v>3951.5910446806433</v>
       </c>
       <c r="CZ17" s="6">
-        <f t="shared" si="31"/>
-        <v>4182.8200343411763</v>
+        <f t="shared" si="32"/>
+        <v>3912.0751342338367</v>
       </c>
       <c r="DA17" s="6">
-        <f t="shared" si="31"/>
-        <v>4140.9918339977648</v>
+        <f t="shared" si="32"/>
+        <v>3872.9543828914984</v>
       </c>
       <c r="DB17" s="6">
-        <f t="shared" si="31"/>
-        <v>4099.5819156577872</v>
+        <f t="shared" si="32"/>
+        <v>3834.2248390625832</v>
       </c>
       <c r="DC17" s="6">
-        <f t="shared" si="31"/>
-        <v>4058.5860965012093</v>
+        <f t="shared" si="32"/>
+        <v>3795.8825906719571</v>
       </c>
       <c r="DD17" s="6">
-        <f t="shared" si="31"/>
-        <v>4018.0002355361971</v>
+        <f t="shared" si="32"/>
+        <v>3757.9237647652376</v>
       </c>
       <c r="DE17" s="6">
-        <f t="shared" si="31"/>
-        <v>3977.8202331808352</v>
+        <f t="shared" si="32"/>
+        <v>3720.3445271175851</v>
       </c>
       <c r="DF17" s="6">
-        <f t="shared" si="31"/>
-        <v>3938.042030849027</v>
+        <f t="shared" si="32"/>
+        <v>3683.1410818464092</v>
       </c>
       <c r="DG17" s="6">
-        <f t="shared" si="31"/>
-        <v>3898.6616105405369</v>
+        <f t="shared" si="32"/>
+        <v>3646.3096710279451</v>
       </c>
       <c r="DH17" s="6">
-        <f t="shared" ref="DH17:EP17" si="32">DG17*(1+$AX$22)</f>
-        <v>3859.6749944351313</v>
+        <f t="shared" ref="DH17:EP17" si="33">DG17*(1+$AX$22)</f>
+        <v>3609.8465743176657</v>
       </c>
       <c r="DI17" s="6">
-        <f t="shared" si="32"/>
-        <v>3821.07824449078</v>
+        <f t="shared" si="33"/>
+        <v>3573.7481085744889</v>
       </c>
       <c r="DJ17" s="6">
-        <f t="shared" si="32"/>
-        <v>3782.8674620458723</v>
+        <f t="shared" si="33"/>
+        <v>3538.0106274887439</v>
       </c>
       <c r="DK17" s="6">
-        <f t="shared" si="32"/>
-        <v>3745.0387874254134</v>
+        <f t="shared" si="33"/>
+        <v>3502.6305212138564</v>
       </c>
       <c r="DL17" s="6">
-        <f t="shared" si="32"/>
-        <v>3707.588399551159</v>
+        <f t="shared" si="33"/>
+        <v>3467.6042160017178</v>
       </c>
       <c r="DM17" s="6">
-        <f t="shared" si="32"/>
-        <v>3670.5125155556475</v>
+        <f t="shared" si="33"/>
+        <v>3432.9281738417008</v>
       </c>
       <c r="DN17" s="6">
-        <f t="shared" si="32"/>
-        <v>3633.8073904000912</v>
+        <f t="shared" si="33"/>
+        <v>3398.5988921032836</v>
       </c>
       <c r="DO17" s="6">
-        <f t="shared" si="32"/>
-        <v>3597.4693164960904</v>
+        <f t="shared" si="33"/>
+        <v>3364.6129031822506</v>
       </c>
       <c r="DP17" s="6">
-        <f t="shared" si="32"/>
-        <v>3561.4946233311293</v>
+        <f t="shared" si="33"/>
+        <v>3330.9667741504281</v>
       </c>
       <c r="DQ17" s="6">
-        <f t="shared" si="32"/>
-        <v>3525.8796770978179</v>
+        <f t="shared" si="33"/>
+        <v>3297.6571064089239</v>
       </c>
       <c r="DR17" s="6">
-        <f t="shared" si="32"/>
-        <v>3490.6208803268396</v>
+        <f t="shared" si="33"/>
+        <v>3264.6805353448349</v>
       </c>
       <c r="DS17" s="6">
-        <f t="shared" si="32"/>
-        <v>3455.7146715235713</v>
+        <f t="shared" si="33"/>
+        <v>3232.0337299913863</v>
       </c>
       <c r="DT17" s="6">
-        <f t="shared" si="32"/>
-        <v>3421.1575248083354</v>
+        <f t="shared" si="33"/>
+        <v>3199.7133926914726</v>
       </c>
       <c r="DU17" s="6">
-        <f t="shared" si="32"/>
-        <v>3386.9459495602518</v>
+        <f t="shared" si="33"/>
+        <v>3167.716258764558</v>
       </c>
       <c r="DV17" s="6">
-        <f t="shared" si="32"/>
-        <v>3353.0764900646491</v>
+        <f t="shared" si="33"/>
+        <v>3136.0390961769126</v>
       </c>
       <c r="DW17" s="6">
-        <f t="shared" si="32"/>
-        <v>3319.5457251640028</v>
+        <f t="shared" si="33"/>
+        <v>3104.6787052151435</v>
       </c>
       <c r="DX17" s="6">
-        <f t="shared" si="32"/>
-        <v>3286.3502679123626</v>
+        <f t="shared" si="33"/>
+        <v>3073.631918162992</v>
       </c>
       <c r="DY17" s="6">
-        <f t="shared" si="32"/>
-        <v>3253.4867652332391</v>
+        <f t="shared" si="33"/>
+        <v>3042.8955989813621</v>
       </c>
       <c r="DZ17" s="6">
-        <f t="shared" si="32"/>
-        <v>3220.9518975809069</v>
+        <f t="shared" si="33"/>
+        <v>3012.4666429915483</v>
       </c>
       <c r="EA17" s="6">
-        <f t="shared" si="32"/>
-        <v>3188.7423786050977</v>
+        <f t="shared" si="33"/>
+        <v>2982.3419765616327</v>
       </c>
       <c r="EB17" s="6">
-        <f t="shared" si="32"/>
-        <v>3156.8549548190467</v>
+        <f t="shared" si="33"/>
+        <v>2952.5185567960161</v>
       </c>
       <c r="EC17" s="6">
-        <f t="shared" si="32"/>
-        <v>3125.2864052708564</v>
+        <f t="shared" si="33"/>
+        <v>2922.9933712280558</v>
       </c>
       <c r="ED17" s="6">
-        <f t="shared" si="32"/>
-        <v>3094.033541218148</v>
+        <f t="shared" si="33"/>
+        <v>2893.7634375157754</v>
       </c>
       <c r="EE17" s="6">
-        <f t="shared" si="32"/>
-        <v>3063.0932058059666</v>
+        <f t="shared" si="33"/>
+        <v>2864.8258031406176</v>
       </c>
       <c r="EF17" s="6">
-        <f t="shared" si="32"/>
-        <v>3032.4622737479067</v>
+        <f t="shared" si="33"/>
+        <v>2836.1775451092112</v>
       </c>
       <c r="EG17" s="6">
-        <f t="shared" si="32"/>
-        <v>3002.1376510104278</v>
+        <f t="shared" si="33"/>
+        <v>2807.8157696581193</v>
       </c>
       <c r="EH17" s="6">
-        <f t="shared" si="32"/>
-        <v>2972.1162745003235</v>
+        <f t="shared" si="33"/>
+        <v>2779.7376119615383</v>
       </c>
       <c r="EI17" s="6">
-        <f t="shared" si="32"/>
-        <v>2942.3951117553202</v>
+        <f t="shared" si="33"/>
+        <v>2751.9402358419229</v>
       </c>
       <c r="EJ17" s="6">
-        <f t="shared" si="32"/>
-        <v>2912.9711606377668</v>
+        <f t="shared" si="33"/>
+        <v>2724.4208334835039</v>
       </c>
       <c r="EK17" s="6">
-        <f t="shared" si="32"/>
-        <v>2883.8414490313889</v>
+        <f t="shared" si="33"/>
+        <v>2697.1766251486688</v>
       </c>
       <c r="EL17" s="6">
-        <f t="shared" si="32"/>
-        <v>2855.0030345410751</v>
+        <f t="shared" si="33"/>
+        <v>2670.204858897182</v>
       </c>
       <c r="EM17" s="6">
-        <f t="shared" si="32"/>
-        <v>2826.4530041956641</v>
+        <f t="shared" si="33"/>
+        <v>2643.50281030821</v>
       </c>
       <c r="EN17" s="6">
-        <f t="shared" si="32"/>
-        <v>2798.1884741537074</v>
+        <f t="shared" si="33"/>
+        <v>2617.067782205128</v>
       </c>
       <c r="EO17" s="6">
-        <f t="shared" si="32"/>
-        <v>2770.2065894121702</v>
+        <f t="shared" si="33"/>
+        <v>2590.8971043830766</v>
       </c>
       <c r="EP17" s="6">
-        <f t="shared" si="32"/>
-        <v>2742.5045235180482</v>
+        <f t="shared" si="33"/>
+        <v>2564.9881333392459</v>
       </c>
     </row>
     <row r="18" spans="1:146" x14ac:dyDescent="0.3">
@@ -3665,19 +3668,19 @@
         <v>989.2</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:Z18" si="33">989.2</f>
+        <f t="shared" ref="W18:Z18" si="34">989.2</f>
         <v>989.2</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>989.2</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>989.2</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>989.2</v>
       </c>
       <c r="AC18" s="1">
@@ -3699,51 +3702,51 @@
         <v>1064</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" ref="AI18:AT18" si="34">1002.5</f>
+        <f t="shared" ref="AI18:AT18" si="35">1002.5</f>
         <v>1002.5</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AS18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1002.5</v>
       </c>
     </row>
@@ -3752,172 +3755,172 @@
         <v>36</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:S19" si="35">C17/C18</f>
+        <f t="shared" ref="C19:S19" si="36">C17/C18</f>
         <v>7.3748902546093065E-2</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.3432835820895523</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.89640035118525019</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.3757682177348551</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.96312554872695344</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0395083406496928</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.95434591747146624</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.7032484635645303</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.44688323090430204</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.29938542581211591</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.1676909569798068</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.80860403863037755</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.70416297608503098</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.90342405618964006</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.89552238805970152</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.3017641597028784</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.83458646616541354</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" ref="T19:V19" si="36">T17/T18</f>
+        <f t="shared" ref="T19:V19" si="37">T17/T18</f>
         <v>1.1033943069549057</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0074812967581048</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.1332389809947432</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" ref="W19:Z19" si="37">W17/W18</f>
-        <v>1.2395806207035989</v>
+        <f t="shared" ref="W19:Z19" si="38">W17/W18</f>
+        <v>1.301051354630004</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="37"/>
-        <v>1.161219874646179</v>
+        <f t="shared" si="38"/>
+        <v>1.3240121512333198</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="37"/>
-        <v>1.2346129700768296</v>
+        <f t="shared" si="38"/>
+        <v>1.3105779680549936</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="37"/>
-        <v>1.3256814395471086</v>
+        <f t="shared" si="38"/>
+        <v>1.2768656773150016</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" ref="AC19:AJ19" si="38">AC17/AC18</f>
+        <f t="shared" ref="AC19:AJ19" si="39">AC17/AC18</f>
         <v>1.9332706766917294</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.3110902255639099</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.9492481203007519</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.9182330827067671</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.2734962406015038</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.9906015037593985</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.1366583541147133</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="38"/>
-        <v>5.1893175142144639</v>
+        <f t="shared" si="39"/>
+        <v>5.1433536897755614</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" ref="AK19:AT19" si="39">AK17/AK18</f>
-        <v>5.7529972922094794</v>
+        <f t="shared" ref="AK19:AT19" si="40">AK17/AK18</f>
+        <v>5.8195628874613492</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="39"/>
-        <v>6.2906844875778569</v>
+        <f t="shared" si="40"/>
+        <v>6.2407090532229432</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="39"/>
-        <v>6.7449144492686388</v>
+        <f t="shared" si="40"/>
+        <v>6.4086930444803203</v>
       </c>
       <c r="AN19" s="5">
-        <f t="shared" si="39"/>
-        <v>6.9241122383702907</v>
+        <f t="shared" si="40"/>
+        <v>6.5804528525675172</v>
       </c>
       <c r="AO19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.1073214171578787</v>
+        <f t="shared" si="40"/>
+        <v>6.6470354359560373</v>
       </c>
       <c r="AP19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.179172686192298</v>
+        <f t="shared" si="40"/>
+        <v>6.7142838451784392</v>
       </c>
       <c r="AQ19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.2517424679170661</v>
+        <f t="shared" si="40"/>
+        <v>6.7822047384930677</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.3250379474590783</v>
+        <f t="shared" si="40"/>
+        <v>6.8508048407408415</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.3990663817965121</v>
+        <f t="shared" si="40"/>
+        <v>6.9200909440110925</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="39"/>
-        <v>7.4738351004773191</v>
+        <f t="shared" si="40"/>
+        <v>6.9900699083140463</v>
       </c>
     </row>
     <row r="21" spans="1:146" x14ac:dyDescent="0.3">
@@ -3933,80 +3936,80 @@
         <v>0.30640970116933741</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:V21" si="40">H3/D3-1</f>
+        <f t="shared" ref="H21:V21" si="41">H3/D3-1</f>
         <v>0.18570613951720216</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.13244183916468222</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.13113145846958796</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7.458975634012921E-2</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9.105482526450781E-2</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.10740860562924626</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6.7215958369470918E-2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.5917013728212144E-2</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7.0672935645019086E-2</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" ref="W21" si="41">W3/S3-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="W21" si="42">W3/S3-1</f>
+        <v>1.1949603844655154E-2</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" ref="X21" si="42">X3/T3-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="X21" si="43">X3/T3-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" ref="Y21" si="43">Y3/U3-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="Y21" si="44">Y3/U3-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" ref="Z21" si="44">Z3/V3-1</f>
-        <v>6.0000000000000053E-2</v>
+        <f t="shared" ref="Z21" si="45">Z3/V3-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="AA21" s="8"/>
       <c r="AC21" s="8"/>
@@ -4015,67 +4018,67 @@
         <v>0.15021681444566704</v>
       </c>
       <c r="AE21" s="8">
-        <f t="shared" ref="AE21:AT21" si="45">AE3/AD3-1</f>
+        <f t="shared" ref="AE21:AT21" si="46">AE3/AD3-1</f>
         <v>0.20717983344586988</v>
       </c>
       <c r="AF21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.18257667567819524</v>
       </c>
       <c r="AG21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="AI21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" si="45"/>
-        <v>5.2631065823819823E-2</v>
+        <f t="shared" si="46"/>
+        <v>1.7887536560052819E-2</v>
       </c>
       <c r="AK21" s="8">
-        <f t="shared" si="45"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="46"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL21" s="8">
-        <f t="shared" si="45"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="46"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AN21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO21" s="8">
-        <f t="shared" si="45"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="46"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="AP21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AQ21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -4084,19 +4087,19 @@
         <v>50</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:F22" si="46">C8/C3</f>
+        <f t="shared" ref="C22:F22" si="47">C8/C3</f>
         <v>0.40905153746210482</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.48564911613761641</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.4843377908041766</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.47629169391759318</v>
       </c>
       <c r="G22" s="8">
@@ -4104,153 +4107,153 @@
         <v>0.4917951268025858</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:V22" si="47">H8/H3</f>
+        <f t="shared" ref="H22:V22" si="48">H8/H3</f>
         <v>0.48477075985892915</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.46036881268197993</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.4457935819601041</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.4261915779731606</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.40816926241551571</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.43558282208588955</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.42394690505214683</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.40156249999999999</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" ref="W22:Z22" si="48">W8/W3</f>
-        <v>0.4</v>
+        <f t="shared" ref="W22:Z22" si="49">W8/W3</f>
+        <v>0.42587601078167114</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="48"/>
-        <v>0.4</v>
+        <f t="shared" si="49"/>
+        <v>0.43</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="48"/>
-        <v>0.41</v>
+        <f t="shared" si="49"/>
+        <v>0.43</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="48"/>
-        <v>0.42</v>
+        <f t="shared" si="49"/>
+        <v>0.43</v>
       </c>
       <c r="AA22" s="8"/>
       <c r="AC22" s="8">
-        <f t="shared" ref="AC22:AD22" si="49">AC8/AC3</f>
+        <f t="shared" ref="AC22:AD22" si="50">AC8/AC3</f>
         <v>0.46527732832826352</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.44941480981318926</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" ref="AE22:AT22" si="50">AE8/AE3</f>
+        <f t="shared" ref="AE22:AT22" si="51">AE8/AE3</f>
         <v>0.46616015661415122</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.46986717117969334</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.42346827531070574</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.39585502670383932</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.40538415573796271</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.42</v>
+        <f t="shared" si="51"/>
+        <v>0.42900728454784171</v>
       </c>
       <c r="AK22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.43</v>
+        <f t="shared" si="51"/>
+        <v>0.45</v>
       </c>
       <c r="AL22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.44</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AM22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AN22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45000000000000007</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AO22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45000000000000007</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AP22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AQ22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45000000000000007</v>
+        <f t="shared" si="51"/>
+        <v>0.46000000000000008</v>
       </c>
       <c r="AR22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.46000000000000008</v>
       </c>
       <c r="AS22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AT22" s="8">
-        <f t="shared" si="50"/>
-        <v>0.45</v>
+        <f t="shared" si="51"/>
+        <v>0.46</v>
       </c>
       <c r="AW22" t="s">
         <v>53</v>
@@ -4264,19 +4267,19 @@
         <v>47</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:F23" si="51">C9/C3</f>
+        <f t="shared" ref="C23:F23" si="52">C9/C3</f>
         <v>8.0337808575140751E-2</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>7.8692263828169545E-2</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8.6279538376992121E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9.8920863309352514E-2</v>
       </c>
       <c r="G23" s="8">
@@ -4284,152 +4287,152 @@
         <v>9.978451848168407E-2</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ref="H23:V23" si="52">H9/H3</f>
+        <f t="shared" ref="H23:V23" si="53">H9/H3</f>
         <v>0.10067329272202628</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.8806211582012295E-2</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.6270598438855159E-2</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.1624248033317909E-2</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.7422862180429037E-2</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.9462459830557997E-2</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0973858864960049E-2</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.1931818181818185E-2</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.3812268423219437E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.9584793744944728E-2</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.8061300772489409E-2</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.4682426289128457E-2</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.6563094483195943E-2</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.4738116477634763E-2</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.4826679416686595E-2</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" ref="W23:Z23" si="53">W9/W3</f>
-        <v>0.05</v>
+        <f t="shared" ref="W23:Z23" si="54">W9/W3</f>
+        <v>6.2636375304838912E-2</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.06</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.06</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AC23" s="8">
-        <f t="shared" ref="AC23:AD23" si="54">AC9/AC3</f>
+        <f t="shared" ref="AC23:AD23" si="55">AC9/AC3</f>
         <v>8.5043039285483138E-2</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.8831870357866304E-2</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" ref="AE23:AT23" si="55">AE9/AE3</f>
+        <f t="shared" ref="AE23:AT23" si="56">AE9/AE3</f>
         <v>8.674373077281626E-2</v>
       </c>
       <c r="AF23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.6369871112687716E-2</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8.2019042081546631E-2</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.0763830573376774E-2</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.2930465138220593E-2</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
+        <v>6.3245298968632596E-2</v>
+      </c>
+      <c r="AK23" s="8">
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
-      <c r="AK23" s="8">
-        <f t="shared" si="55"/>
+      <c r="AL23" s="8">
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
-      <c r="AL23" s="8">
-        <f t="shared" si="55"/>
-        <v>5.9999999999999991E-2</v>
-      </c>
       <c r="AM23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
       <c r="AN23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="AO23" s="8">
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
-      <c r="AO23" s="8">
-        <f t="shared" si="55"/>
+      <c r="AP23" s="8">
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
-      <c r="AP23" s="8">
-        <f t="shared" si="55"/>
-        <v>0.06</v>
-      </c>
       <c r="AQ23" s="8">
-        <f t="shared" si="55"/>
-        <v>0.06</v>
+        <f t="shared" si="56"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="AR23" s="8">
-        <f t="shared" si="55"/>
-        <v>5.9999999999999991E-2</v>
+        <f t="shared" si="56"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="AS23" s="8">
-        <f t="shared" si="55"/>
-        <v>5.9999999999999991E-2</v>
+        <f t="shared" si="56"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="AT23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
       <c r="AW23" t="s">
@@ -4452,79 +4455,79 @@
         <v>0.22479338842975216</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ref="H24:V24" si="56">H10/D10-1</f>
+        <f t="shared" ref="H24:V24" si="57">H10/D10-1</f>
         <v>0.1822503961965134</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.12017804154302669</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.7431693989071135E-2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.986504723346834E-2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.2493297587131318E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6.0927152317880706E-2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.2663316582914659E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-0.11533742331288344</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-8.8343558282208634E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-7.7403245942571752E-2</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-6.326034063260344E-2</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.9126213592232997E-2</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3.3647375504710642E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.4722598105547728E-3</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.8961038961038419E-3</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ref="W24:W25" si="57">W10/S10-1</f>
+        <f t="shared" ref="W24:W25" si="58">W10/S10-1</f>
+        <v>-1.4824797843665749E-2</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" ref="X24:X25" si="59">X10/T10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="X24" s="8">
-        <f t="shared" ref="X24:X25" si="58">X10/T10-1</f>
+      <c r="Y24" s="8">
+        <f t="shared" ref="Y24:Y25" si="60">Y10/U10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="Y24" s="8">
-        <f t="shared" ref="Y24:Y25" si="59">Y10/U10-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
       <c r="Z24" s="8">
-        <f t="shared" ref="Z24:Z25" si="60">Z10/V10-1</f>
+        <f t="shared" ref="Z24:Z25" si="61">Z10/V10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AA24" s="8"/>
@@ -4534,67 +4537,67 @@
         <v>0.1387220098306936</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" ref="AE24:AT24" si="61">AE10/AD10-1</f>
+        <f t="shared" ref="AE24:AT24" si="62">AE10/AD10-1</f>
         <v>0.26714628297362109</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.14988644965934905</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7.0770243581303571E-2</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-8.6074392868121685E-2</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2.0181634712410634E-3</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="61"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="62"/>
+        <v>3.8167170191338862E-3</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AM24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AN24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AO24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AP24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AQ24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT24" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AW24" t="s">
@@ -4602,7 +4605,7 @@
       </c>
       <c r="AX24" s="1">
         <f>NPV(AX23,AJ17:EP17)</f>
-        <v>82743.590158331994</v>
+        <v>78463.283168822862</v>
       </c>
     </row>
     <row r="25" spans="1:146" x14ac:dyDescent="0.3">
@@ -4618,79 +4621,79 @@
         <v>7.8189300411522611E-2</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ref="H25:V25" si="62">H11/D11-1</f>
+        <f t="shared" ref="H25:V25" si="63">H11/D11-1</f>
         <v>1.953125E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-9.9403578528827197E-3</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.7574692442883233E-3</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.15839694656488557</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.5325670498084309E-2</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-7.0281124497991954E-2</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-9.6491228070175405E-2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.16474464579901149</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4747081712062209E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.5032397408207236E-2</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.5728155339805925E-2</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.4812623274161725E-2</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.16089613034623218</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.3668639053254337E-2</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.2202166064981865E-2</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="57"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="58"/>
+        <v>8.405172413793105E-2</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="58"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="59"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="59"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="60"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AA25" s="8"/>
@@ -4700,67 +4703,67 @@
         <v>0.11031797534068777</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" ref="AE25:AT25" si="63">AE11/AD11-1</f>
+        <f t="shared" ref="AE25:AT25" si="64">AE11/AD11-1</f>
         <v>0.20981881940385749</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.1256038647343045E-2</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-7.0955534531693676E-3</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1.9056693663649371E-2</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.2739193783390084E-2</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="63"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="64"/>
+        <v>2.5277130880298149E-2</v>
       </c>
       <c r="AK25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AM25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AO25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AP25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT25" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AW25" t="s">
@@ -4768,7 +4771,7 @@
       </c>
       <c r="AX25" s="1">
         <f>Main!D8</f>
-        <v>5527</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="26" spans="1:146" x14ac:dyDescent="0.3">
@@ -4776,19 +4779,19 @@
         <v>51</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" ref="C26:F26" si="64">C13/C3</f>
+        <f t="shared" ref="C26:F26" si="65">C13/C3</f>
         <v>8.6184495452576879E-2</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.18076411328644745</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.17897050741894119</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.15745585349901897</v>
       </c>
       <c r="G26" s="8">
@@ -4796,160 +4799,160 @@
         <v>0.17271672468092159</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:V26" si="65">H13/H3</f>
+        <f t="shared" ref="H26:V26" si="66">H13/H3</f>
         <v>0.18066688041038795</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.16871562601099968</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.15177797051170858</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.10967144840351689</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.11225389362327358</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.16330704060765411</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.1684951916565082</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.14190340909090909</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" ref="W26:Z26" si="66">W13/W3</f>
-        <v>0.19199061102555065</v>
+        <f t="shared" ref="W26:Z26" si="67">W13/W3</f>
+        <v>0.19638043896804006</v>
       </c>
       <c r="X26" s="8">
-        <f t="shared" si="66"/>
-        <v>0.17545852583265398</v>
+        <f t="shared" si="67"/>
+        <v>0.20628880848471284</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="66"/>
-        <v>0.18760490815416261</v>
+        <f t="shared" si="67"/>
+        <v>0.2031673349904298</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" si="66"/>
-        <v>0.18733011876463129</v>
+        <f t="shared" si="67"/>
+        <v>0.18927715434703876</v>
       </c>
       <c r="AA26" s="8"/>
       <c r="AC26" s="8">
-        <f t="shared" ref="AC26:AD26" si="67">AC13/AC3</f>
+        <f t="shared" ref="AC26:AD26" si="68">AC13/AC3</f>
         <v>0.1419972817293379</v>
       </c>
       <c r="AD26" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.15299347287868556</v>
       </c>
       <c r="AE26" s="8">
-        <f t="shared" ref="AE26:AT26" si="68">AE13/AE3</f>
+        <f t="shared" ref="AE26:AT26" si="69">AE13/AE3</f>
         <v>0.15330474503589075</v>
       </c>
       <c r="AF26" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.19926806015205625</v>
+        <f t="shared" si="69"/>
+        <v>0.19868300058982066</v>
       </c>
       <c r="AK26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.21241651485487933</v>
+        <f t="shared" si="69"/>
+        <v>0.22656563042726086</v>
       </c>
       <c r="AL26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.22550427954682015</v>
+        <f t="shared" si="69"/>
+        <v>0.23819762524570715</v>
       </c>
       <c r="AM26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.23704628778065265</v>
+        <f t="shared" si="69"/>
+        <v>0.23981303781931504</v>
       </c>
       <c r="AN26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.23857264212380405</v>
+        <f t="shared" si="69"/>
+        <v>0.24141204213667383</v>
       </c>
       <c r="AO26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.24008350655878877</v>
+        <f t="shared" si="69"/>
+        <v>0.2414403034275874</v>
       </c>
       <c r="AP26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.24010952883108774</v>
+        <f t="shared" si="69"/>
+        <v>0.24146828490373939</v>
       </c>
       <c r="AQ26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.24013529345712645</v>
+        <f t="shared" si="69"/>
+        <v>0.24149598933557309</v>
       </c>
       <c r="AR26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.2401608029878578</v>
+        <f t="shared" si="69"/>
+        <v>0.24152341946610151</v>
       </c>
       <c r="AS26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.24018605994897793</v>
+        <f t="shared" si="69"/>
+        <v>0.24155057801117907</v>
       </c>
       <c r="AT26" s="8">
-        <f t="shared" si="68"/>
-        <v>0.24021106684117605</v>
+        <f t="shared" si="69"/>
+        <v>0.24157746765977076</v>
       </c>
       <c r="AW26" t="s">
         <v>57</v>
       </c>
       <c r="AX26" s="1">
         <f>AX24+AX25</f>
-        <v>88270.590158331994</v>
+        <v>82870.283168822862</v>
       </c>
     </row>
     <row r="27" spans="1:146" x14ac:dyDescent="0.3">
@@ -4957,19 +4960,19 @@
         <v>34</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" ref="C27:F27" si="69">C16/C15</f>
+        <f t="shared" ref="C27:F27" si="70">C16/C15</f>
         <v>0.68060836501901145</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.14952751528627015</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.10751748251748251</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.15707369553523401</v>
       </c>
       <c r="G27" s="8">
@@ -4977,152 +4980,152 @@
         <v>-0.2580275229357798</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ref="H27:V27" si="70">H16/H15</f>
+        <f t="shared" ref="H27:V27" si="71">H16/H15</f>
         <v>0.12684365781710916</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6.6952789699570817E-2</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.13456090651558072</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.19077901430842609</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>7.9591836734693882</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.15716096324461343</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.17027027027027028</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.25977653631284914</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.21028396009209516</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.2295957284515637</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.20496453900709219</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" ref="W27:Z27" si="71">W16/W15</f>
+        <f t="shared" ref="W27:Z27" si="72">W16/W15</f>
+        <v>0.19713038053649407</v>
+      </c>
+      <c r="X27" s="8">
+        <f t="shared" si="72"/>
         <v>0.22</v>
       </c>
-      <c r="X27" s="8">
-        <f t="shared" si="71"/>
-        <v>0.22</v>
-      </c>
       <c r="Y27" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" si="71"/>
-        <v>0.22</v>
+        <f t="shared" si="72"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="AA27" s="8"/>
       <c r="AC27" s="8">
-        <f t="shared" ref="AC27:AD27" si="72">AC16/AC15</f>
+        <f t="shared" ref="AC27:AD27" si="73">AC16/AC15</f>
         <v>0.13425925925925927</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17978652434956638</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" ref="AE27:AT27" si="73">AE16/AE15</f>
+        <f t="shared" ref="AE27:AT27" si="74">AE16/AE15</f>
         <v>0.17038499506416585</v>
       </c>
       <c r="AF27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-1.7077335935594046E-2</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
+        <v>0.21441458948230632</v>
+      </c>
+      <c r="AK27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AK27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AL27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AL27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AM27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AM27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AN27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AN27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AO27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AO27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AP27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AP27" s="8">
-        <f t="shared" si="73"/>
+      <c r="AQ27" s="8">
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
-      <c r="AQ27" s="8">
-        <f t="shared" si="73"/>
-        <v>0.22000000000000003</v>
-      </c>
       <c r="AR27" s="8">
-        <f t="shared" si="73"/>
-        <v>0.22000000000000003</v>
+        <f t="shared" si="74"/>
+        <v>0.22</v>
       </c>
       <c r="AS27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
       <c r="AT27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.22</v>
       </c>
       <c r="AW27" t="s">
@@ -5130,7 +5133,7 @@
       </c>
       <c r="AX27" s="9">
         <f>AX26/AT18</f>
-        <v>88.050463998336156</v>
+        <v>82.663624108551488</v>
       </c>
     </row>
     <row r="28" spans="1:146" x14ac:dyDescent="0.3">
@@ -5142,168 +5145,168 @@
         <v>1.8189692507579038E-2</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" ref="D28:V28" si="74">D17/D3</f>
+        <f t="shared" ref="D28:V28" si="75">D17/D3</f>
         <v>0.29081923588671355</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.18703059168345851</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.25621321124918245</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.1818332504558263</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.18980442449503046</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.17583306373341961</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.11578490893321769</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7.8513034089156261E-2</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-5.0102850426094622E-2</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.19427402862985685</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.12474603819585535</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.11292613636363637</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.14121037463976946</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.13750337018064168</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.17468228258160975</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.11533965450058449</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.14305643627140138</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.12871160953230534</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.13399474061678221</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" ref="W28:Z28" si="75">W17/W3</f>
-        <v>0.15168242628912845</v>
+        <f t="shared" ref="W28:Z28" si="76">W17/W3</f>
+        <v>0.16519060454370427</v>
       </c>
       <c r="X28" s="8">
-        <f t="shared" si="75"/>
-        <v>0.13874187879336902</v>
+        <f t="shared" si="76"/>
+        <v>0.16284491775150137</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="75"/>
-        <v>0.14822518159806292</v>
+        <f t="shared" si="76"/>
+        <v>0.16040063867089147</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="75"/>
-        <v>0.14787663453601502</v>
+        <f t="shared" si="76"/>
+        <v>0.14948240852294645</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" ref="AC28:AT28" si="76">AC17/AC3</f>
+        <f t="shared" ref="AC28:AT28" si="77">AC17/AC3</f>
         <v>0.13313054171251051</v>
       </c>
       <c r="AD28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.13836371820841772</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.19586091171809453</v>
       </c>
       <c r="AF28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16432146939419021</v>
       </c>
       <c r="AG28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>8.7906097826876958E-2</v>
       </c>
       <c r="AH28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.14262201471230393</v>
       </c>
       <c r="AI28" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.13042110890964556</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.15542908691860385</v>
+        <f t="shared" si="77"/>
+        <v>0.15931065672159198</v>
       </c>
       <c r="AK28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.16568488158680586</v>
+        <f t="shared" si="77"/>
+        <v>0.17672119173326348</v>
       </c>
       <c r="AL28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.17589333804651971</v>
+        <f t="shared" si="77"/>
+        <v>0.18579414769165156</v>
       </c>
       <c r="AM28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18489610446890906</v>
+        <f t="shared" si="77"/>
+        <v>0.18705416949906573</v>
       </c>
       <c r="AN28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18608666085656717</v>
+        <f t="shared" si="77"/>
+        <v>0.1883013928666056</v>
       </c>
       <c r="AO28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18726513511585524</v>
+        <f t="shared" si="77"/>
+        <v>0.1883234366735182</v>
       </c>
       <c r="AP28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18728543248824844</v>
+        <f t="shared" si="77"/>
+        <v>0.18834526222491671</v>
       </c>
       <c r="AQ28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18730552889655863</v>
+        <f t="shared" si="77"/>
+        <v>0.18836687168174701</v>
       </c>
       <c r="AR28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18732542633052907</v>
+        <f t="shared" si="77"/>
+        <v>0.18838826718355917</v>
       </c>
       <c r="AS28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18734512676020279</v>
+        <f t="shared" si="77"/>
+        <v>0.18840945084871968</v>
       </c>
       <c r="AT28" s="8">
-        <f t="shared" si="76"/>
-        <v>0.18736463213611732</v>
+        <f t="shared" si="77"/>
+        <v>0.18843042477462119</v>
       </c>
       <c r="AW28" t="s">
         <v>59</v>
@@ -5318,7 +5321,7 @@
       </c>
       <c r="AX29" s="10">
         <f>AX27/AX28-1</f>
-        <v>0.44345022948092061</v>
+        <v>0.35514137882871299</v>
       </c>
     </row>
     <row r="30" spans="1:146" x14ac:dyDescent="0.3">
@@ -5332,6 +5335,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>